--- a/AcceptanceTests/Test 7.xlsx
+++ b/AcceptanceTests/Test 7.xlsx
@@ -6783,16 +6783,16 @@
     <t>-229,-40,0.04,3.88</t>
   </si>
   <si>
-    <t>Afstand</t>
-  </si>
-  <si>
-    <t>Vinkel</t>
-  </si>
-  <si>
     <t>Milli</t>
   </si>
   <si>
     <t>Going</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Angle</t>
   </si>
 </sst>
 </file>
@@ -6845,6 +6845,1544 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arduino1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arduino1!$E$2:$E$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arduino1!$F$2:$F$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84.53</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83.77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83.11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81.87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81.31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>79.98</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77.98</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>77.02</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>76.17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74.83</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>73.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>73.03</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.89</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70.55</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69.03</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>67.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63.45</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62.78</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>62.31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>61.73</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60.87</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>59.73</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58.79</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>57.73</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56.99</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56.02</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54.69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>53.65</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51.27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50.23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>49.28</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48.04</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>46.05</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44.26</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43.49</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42.73</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41.78</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40.83</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>38.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>37.31</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>36.46</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>35.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34.56</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33.51</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>32.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31.03</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>28.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>27.42</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26.19</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24.96</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>23.92</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22.87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>21.83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.39</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15.53</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14.86</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13.72</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12.62</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>11.56</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10.33</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.09</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.16</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.69</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-1.72</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-2.39</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-2.96</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-3.33</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-4.01</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-4.57</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-4.6500000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="291827816"/>
+        <c:axId val="291827424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="291827816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291827424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="291827424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291827816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9752,23 +11290,23 @@
   <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="L100" sqref="L100"/>
+      <selection activeCell="S107" sqref="S107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="H1" t="s">
         <v>2251</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>2252</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2253</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2254</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -11753,6 +13291,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
